--- a/data/trans_orig/P1438_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>41478</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30377</v>
+        <v>30767</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54511</v>
+        <v>57259</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08347787155815924</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06113677684981118</v>
+        <v>0.06192140510673648</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1097084923698637</v>
+        <v>0.1152390721446639</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>142</v>
@@ -762,19 +762,19 @@
         <v>83859</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69522</v>
+        <v>70510</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>97544</v>
+        <v>97547</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1346243217461194</v>
+        <v>0.1346243217461193</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1116075796952268</v>
+        <v>0.1131936105691895</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1565934737230615</v>
+        <v>0.1565977877191305</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>187</v>
@@ -783,19 +783,19 @@
         <v>125337</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>107858</v>
+        <v>110154</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144060</v>
+        <v>146097</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1119295245293752</v>
+        <v>0.1119295245293753</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09632003285464102</v>
+        <v>0.09837084015188177</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1286500073582364</v>
+        <v>0.1304690932683622</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>455395</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>442362</v>
+        <v>439614</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>466496</v>
+        <v>466106</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9165221284418407</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8902915076301365</v>
+        <v>0.8847609278553359</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.938863223150189</v>
+        <v>0.9380785948932633</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>718</v>
@@ -833,19 +833,19 @@
         <v>539053</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>525368</v>
+        <v>525365</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>553390</v>
+        <v>552402</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8653756782538807</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8434065262769385</v>
+        <v>0.8434022122808695</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8883924203047732</v>
+        <v>0.8868063894308106</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1126</v>
@@ -854,19 +854,19 @@
         <v>994448</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>975725</v>
+        <v>973688</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1011927</v>
+        <v>1009631</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8880704754706248</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8713499926417633</v>
+        <v>0.8695309067316375</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9036799671453587</v>
+        <v>0.9016291598481183</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>49779</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39046</v>
+        <v>38786</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63391</v>
+        <v>63757</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05184594046426141</v>
+        <v>0.05184594046426142</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04066690322575484</v>
+        <v>0.04039655757083174</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06602309359199444</v>
+        <v>0.06640381460685418</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>208</v>
@@ -979,19 +979,19 @@
         <v>112257</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>97282</v>
+        <v>98555</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>128137</v>
+        <v>130485</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1006637516577515</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08723580526878806</v>
+        <v>0.08837645460461376</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1149037173434682</v>
+        <v>0.1170095699152281</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>277</v>
@@ -1000,19 +1000,19 @@
         <v>162036</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>142188</v>
+        <v>143118</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>182264</v>
+        <v>182014</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.07807824696377949</v>
+        <v>0.07807824696377948</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06851457083677602</v>
+        <v>0.06896229368842097</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08782502321200515</v>
+        <v>0.08770478339270812</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>910358</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>896746</v>
+        <v>896380</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>921091</v>
+        <v>921351</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9481540595357386</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9339769064080055</v>
+        <v>0.9335961853931457</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9593330967742453</v>
+        <v>0.9596034424291683</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1398</v>
@@ -1050,19 +1050,19 @@
         <v>1002910</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>987030</v>
+        <v>984682</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1017885</v>
+        <v>1016612</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8993362483422487</v>
+        <v>0.8993362483422486</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8850962826565318</v>
+        <v>0.8829904300847717</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.912764194731212</v>
+        <v>0.9116235453953863</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2239</v>
@@ -1071,19 +1071,19 @@
         <v>1913267</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1893039</v>
+        <v>1893289</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1933115</v>
+        <v>1932185</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9219217530362205</v>
+        <v>0.9219217530362204</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9121749767879944</v>
+        <v>0.912295216607292</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9314854291632234</v>
+        <v>0.9310377063115791</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>33776</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25379</v>
+        <v>24987</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46121</v>
+        <v>45216</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0322757815413187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02425209323821507</v>
+        <v>0.02387748175879814</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04407264248537802</v>
+        <v>0.04320804863181701</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>115</v>
@@ -1196,19 +1196,19 @@
         <v>64043</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51400</v>
+        <v>52576</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76140</v>
+        <v>77901</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06116855711356821</v>
+        <v>0.06116855711356822</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04909352092098937</v>
+        <v>0.05021665703821525</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07272221138448628</v>
+        <v>0.07440438255170731</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>164</v>
@@ -1217,19 +1217,19 @@
         <v>97819</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82726</v>
+        <v>83167</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115030</v>
+        <v>115154</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0467256974700648</v>
+        <v>0.04672569747006481</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03951640519798962</v>
+        <v>0.03972710261780237</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05494694177090067</v>
+        <v>0.05500623214616544</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>1012703</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1000358</v>
+        <v>1001263</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1021100</v>
+        <v>1021492</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9677242184586813</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9559273575146219</v>
+        <v>0.9567919513681831</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9757479067617848</v>
+        <v>0.9761225182412018</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1400</v>
@@ -1267,19 +1267,19 @@
         <v>982948</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>970851</v>
+        <v>969090</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>995591</v>
+        <v>994415</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9388314428864318</v>
+        <v>0.9388314428864317</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9272777886155137</v>
+        <v>0.9255956174482926</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9509064790790106</v>
+        <v>0.9497833429617849</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2380</v>
@@ -1288,19 +1288,19 @@
         <v>1995651</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1978440</v>
+        <v>1978316</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2010744</v>
+        <v>2010303</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9532743025299352</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9450530582290992</v>
+        <v>0.9449937678538346</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9604835948020104</v>
+        <v>0.9602728973821977</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>36716</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25717</v>
+        <v>26702</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49777</v>
+        <v>49237</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03765502082360891</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02637479736098096</v>
+        <v>0.02738487090431673</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05105076306824574</v>
+        <v>0.0504961516803251</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -1413,19 +1413,19 @@
         <v>56127</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45345</v>
+        <v>45399</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67869</v>
+        <v>69511</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06179685843913513</v>
+        <v>0.06179685843913515</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04992518568668817</v>
+        <v>0.04998491986249379</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07472464101889617</v>
+        <v>0.0765325706875005</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>138</v>
@@ -1434,19 +1434,19 @@
         <v>92843</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77191</v>
+        <v>77169</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>110280</v>
+        <v>109869</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04929774335650356</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04098710614397454</v>
+        <v>0.04097508022522461</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05855641337445291</v>
+        <v>0.05833811024677507</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>938342</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>925281</v>
+        <v>925821</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>949341</v>
+        <v>948356</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9623449791763912</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9489492369317539</v>
+        <v>0.9495038483196749</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.973625202639019</v>
+        <v>0.9726151290956834</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1226</v>
@@ -1484,19 +1484,19 @@
         <v>852124</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>840382</v>
+        <v>838740</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>862906</v>
+        <v>862852</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9382031415608648</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9252753589811039</v>
+        <v>0.9234674293124996</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.950074814313312</v>
+        <v>0.9500150801375062</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2128</v>
@@ -1505,19 +1505,19 @@
         <v>1790466</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1773029</v>
+        <v>1773440</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1806118</v>
+        <v>1806140</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9507022566434964</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9414435866255473</v>
+        <v>0.9416618897532247</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9590128938560258</v>
+        <v>0.9590249197747754</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>161749</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>138421</v>
+        <v>139437</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>185525</v>
+        <v>186777</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04649897040161734</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03979285596571795</v>
+        <v>0.04008472461299992</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05333399718032823</v>
+        <v>0.05369392969872688</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>559</v>
@@ -1630,19 +1630,19 @@
         <v>316286</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>292237</v>
+        <v>288630</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>342346</v>
+        <v>342632</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08563728584677797</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07912597366638562</v>
+        <v>0.07814923817957968</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09269341696493415</v>
+        <v>0.09277074523216954</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>766</v>
@@ -1651,19 +1651,19 @@
         <v>478035</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>441400</v>
+        <v>443510</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>514425</v>
+        <v>516368</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06665415691421034</v>
+        <v>0.06665415691421035</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06154604758574724</v>
+        <v>0.0618402433619535</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07172822428124476</v>
+        <v>0.0719991024021313</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3316798</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3293022</v>
+        <v>3291770</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3340126</v>
+        <v>3339110</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9535010295983826</v>
+        <v>0.9535010295983825</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9466660028196715</v>
+        <v>0.9463060703012731</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.960207144034282</v>
+        <v>0.9599152753870002</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4742</v>
@@ -1701,19 +1701,19 @@
         <v>3377033</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3350973</v>
+        <v>3350687</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3401082</v>
+        <v>3404689</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.914362714153222</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9073065830350656</v>
+        <v>0.9072292547678302</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9208740263336137</v>
+        <v>0.9218507618204201</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7873</v>
@@ -1722,19 +1722,19 @@
         <v>6693831</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6657441</v>
+        <v>6655498</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6730466</v>
+        <v>6728356</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9333458430857897</v>
+        <v>0.9333458430857896</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9282717757187553</v>
+        <v>0.9280008975978686</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9384539524142527</v>
+        <v>0.9381597566380464</v>
       </c>
     </row>
     <row r="18">
